--- a/hash.xlsx
+++ b/hash.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Avi Rosenfeld\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C21A07B-9467-4E5F-B6C3-B17FAD923D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA13075D-41C1-42D5-B5DA-C7BE040359EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22944" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{7F5552C7-248A-45AF-944D-3C33E6814ADB}"/>
   </bookViews>
@@ -3394,7 +3394,7 @@
   <dimension ref="A1:N155"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
-      <selection activeCell="A156" sqref="A156:P217"/>
+      <selection activeCell="C148" sqref="C148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
